--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="124">
   <si>
     <t>Round</t>
   </si>
@@ -12812,7 +12812,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13522,344 +13522,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-    </row>
     <row r="25" spans="1:10">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
+      <c r="A25" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27">
-        <v>5</v>
+      <c r="A27" t="s">
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28">
-        <v>5</v>
+      <c r="A28" t="s">
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" t="s">
-        <v>97</v>
-      </c>
-      <c r="J28">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29">
-        <v>5</v>
+      <c r="A29" t="s">
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30">
-        <v>5</v>
+      <c r="A30" t="s">
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31">
-        <v>5</v>
+      <c r="A31" t="s">
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" t="s">
         <v>34</v>
       </c>
     </row>
